--- a/DesignerRawdata/Excel/DialogueTalkerName.xlsx
+++ b/DesignerRawdata/Excel/DialogueTalkerName.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0BE8F077-84D2-46E0-A977-9101AD7389D1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueTalkerName" sheetId="3" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DialogueTalkerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,13 +51,21 @@
   </si>
   <si>
     <t>美術</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_unknwon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,11 +383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -416,6 +425,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerRawdata/Excel/DialogueTalkerName.xlsx
+++ b/DesignerRawdata/Excel/DialogueTalkerName.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0BE8F077-84D2-46E0-A977-9101AD7389D1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8C5678-CA75-4C8C-B779-504B11DF93F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DialogueTalkerName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,22 @@
   </si>
   <si>
     <t>id_unknwon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -433,6 +449,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
